--- a/documents/优化文档/集材邦更新计划V1.1--客户修改版 - 反馈.xlsx
+++ b/documents/优化文档/集材邦更新计划V1.1--客户修改版 - 反馈.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CaiJunqiu/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,66 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录状态下，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会员中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，点击昵称，会跳转至登录页，而不是个人信息编辑页，没有找到个人信息编辑页入</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本月优先更新影响交互体验的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,52 +189,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对于有起售量限制的产品，下单过程若小于起售量，则弹出提示语，提示“该产品{x}件起售”。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">上传产品页，对于“服务”内容填写项，placeholder内容改为“(必填，如：正品保证、免物流费)” </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要在已有版本上更改登录方式，需要推翻现有的用户数据库重建。需要时间较长，且有可能会引起其他BUG。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>运营后台，建材厂列表，删除建材厂操作，应在删除前弹出确认框，提示是否删除，点击“确定”后，进行删除，点击“取消”，则取消删除操作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册页面，输入手机号，点击“发送验证码”，应先验证该手机号是否已注册，若是，则提示已注册，不发送验证码；反之则发送验证码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,86 +201,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>店铺信息编辑页，当店铺头像未上传时，会报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误。未对错误信息做针对性提示。应添加对用户未上传产品的提示：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请上传店铺照片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。店铺信息编辑页，保存后，弹出提示“所修改信息已提交审核，请耐心等待”
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开放对店铺名称的修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据库提供用户登录密码，对于初次注册的用户，在短信验证码通过后，跳转至密码设置页面，设置用户密码。以后用户再次登录时，通过密码登录，而非验证码登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营后台，建材厂列表，将建材厂下线/删除后，前端小程序该厂家所涉及的产品，还能进行在线交易。应改为：删除/下线厂家后，该厂家所涉及的产品都无法进行购买。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -447,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,12 +893,68 @@
     <t xml:space="preserve">该项可提前7.30版本更新，或随8月10号版本一起更新。     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 登录状态下，“会员中心”，点击昵称，会跳转至登录页，而不是个人信息编辑页，没有找到个人信息编辑页入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于有起售量限制的产品，下单过程若小于起售量，则弹出提示语，提示“该产品{x}件起售”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上传产品页，对于“服务”内容填写项，placeholder内容改为“(必填，如：正品保证、免物流费)” </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">店铺信息编辑页，当店铺头像未上传时，会报500错误。未对错误信息做针对性提示。应添加对用户未上传产品的提示：“请上传店铺照片”。店铺信息编辑页，保存后，弹出提示“所修改信息已提交审核，请耐心等待”
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运营后台，建材厂列表，删除建材厂操作，应在删除前弹出确认框，提示是否删除，点击“确定”后，进行删除，点击“取消”，则取消删除操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营后台，建材厂列表，将建材厂下线/删除后，前端小程序该厂家所涉及的产品，还能进行在线交易。应改为：删除/下线厂家后，该厂家所涉及的产品都无法进行购买。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,12 +990,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1200,8 +1064,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,6 +1095,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1314,16 +1198,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1334,9 +1221,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1364,20 +1248,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1386,75 +1269,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1518,7 +1407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1553,7 +1442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1761,495 +1650,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F37" sqref="F37"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="5"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="74.1640625" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="8.875" style="4"/>
+    <col min="5" max="5" width="8.875" style="1"/>
+    <col min="6" max="6" width="74.125" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" s="34" customFormat="1" ht="29.25" thickBot="1">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="37" customFormat="1" ht="43.5" thickBot="1">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="39" customFormat="1">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="39" customFormat="1" ht="71.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="39" customFormat="1">
+      <c r="A6" s="31">
+        <v>6</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" s="39" customFormat="1" ht="28.5">
+      <c r="A7" s="32">
+        <v>7</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="39" customFormat="1" ht="28.5">
+      <c r="A8" s="32">
+        <v>8</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="37" customFormat="1" ht="42.75">
+      <c r="A9" s="31">
+        <v>9</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="39" customFormat="1" ht="71.25">
+      <c r="A10" s="31">
+        <v>10</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="37" customFormat="1" ht="42.75">
+      <c r="A11" s="31">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="39" customFormat="1">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="29" t="s">
+    </row>
+    <row r="13" spans="1:7" s="39" customFormat="1" ht="42.75">
+      <c r="A13" s="31">
+        <v>14</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.5">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="42.75">
+      <c r="A15" s="8">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="F15" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="16" customFormat="1" ht="42.75">
+      <c r="A16" s="8">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="57">
+      <c r="A17" s="8">
+        <v>23</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57">
+      <c r="A18" s="8">
+        <v>18</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="17" customFormat="1" ht="85.5">
+      <c r="A19" s="8">
+        <v>19</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="17" customFormat="1" ht="42.75">
+      <c r="A20" s="8">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" s="17" customFormat="1">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" s="17" customFormat="1" ht="31.5">
+      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="16" customFormat="1" ht="42.75">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" s="17" customFormat="1" ht="42.75">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="42.75">
+      <c r="A25" s="8">
+        <v>25</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="40" t="s">
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="42.75">
+      <c r="A26" s="8">
+        <v>26</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.5">
+      <c r="A27" s="5">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42.75">
+      <c r="A28" s="5">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="39" customFormat="1" ht="42.75">
+      <c r="A29" s="38">
+        <v>29</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="39" customFormat="1">
+      <c r="A30" s="38">
+        <v>30</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="39" customFormat="1" ht="42.75">
+      <c r="A31" s="38">
+        <v>31</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>6</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>7</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>8</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="35">
-        <v>1</v>
-      </c>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="77" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>10</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>13</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>14</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>15</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>16</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="40"/>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>23</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>18</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="19" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>19</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>24</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="43"/>
-    </row>
-    <row r="21" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="22" spans="1:6" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>17</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="40"/>
-    </row>
-    <row r="24" spans="1:6" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="43"/>
-    </row>
-    <row r="25" spans="1:6" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
-        <v>25</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>26</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>27</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>30</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>31</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2264,12 +2148,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2277,12 +2161,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
